--- a/France/3_Comptabilite_Et_Fiscalite/4_Enregistrements/Modele_Enregistrements.xlsx
+++ b/France/3_Comptabilite_Et_Fiscalite/4_Enregistrements/Modele_Enregistrements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Livre_Journal" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Numéro_Enregistrement</t>
   </si>
@@ -85,6 +85,27 @@
   </si>
   <si>
     <t>Numero_De_La_Classe</t>
+  </si>
+  <si>
+    <t>Date de l'inventaire</t>
+  </si>
+  <si>
+    <t>Désignation des articles</t>
+  </si>
+  <si>
+    <t>Référence</t>
+  </si>
+  <si>
+    <t>Quantité</t>
+  </si>
+  <si>
+    <t>Prix_Unitaire_[€]</t>
+  </si>
+  <si>
+    <t>Prix_Total_[€]</t>
+  </si>
+  <si>
+    <t>Livre d'inventaire</t>
   </si>
 </sst>
 </file>
@@ -250,7 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -316,6 +337,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -792,7 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -988,12 +1015,82 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>